--- a/Extra Work/hlr for megneto.softwaretestingboard.com.xlsx
+++ b/Extra Work/hlr for megneto.softwaretestingboard.com.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NCS\Documents\GitHub\Nirav_Tops\HLR and Testcase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NCS\Documents\GitHub\Nirav_Tops\Extra Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="346">
   <si>
     <t>functionality id</t>
   </si>
@@ -829,18 +829,12 @@
     <t>while clicking on compare button it is working properly and also had open a new page</t>
   </si>
   <si>
-    <t>check remove product close icon</t>
-  </si>
-  <si>
     <t xml:space="preserve">1) https://magento.softwaretestingboard.com
 2) press enter key
 3) click on sign link
 4) click on sign in button
 5) click on training menu
 </t>
-  </si>
-  <si>
-    <t>while clicking on remove product close icon it is working properly and also display a proper message</t>
   </si>
   <si>
     <t>check cancel button</t>
@@ -1552,6 +1546,143 @@
 10) click on add to cart icon
 11) click on proceed to checkout button
 12) click on next button</t>
+  </si>
+  <si>
+    <t>1) https://magento.softwaretestingboard.com
+2) press enter key
+3) click on sign link
+4) click on sign in button
+5) click on women&gt;tops&gt;jackets
+6) click on product link
+7) click on size
+8) click on color
+9) click on add to cart button
+10) click on add to cart icon
+11) click on proceed to checkout button
+12) click on next button
+13) click on place order button</t>
+  </si>
+  <si>
+    <t>1) https://magento.softwaretestingboard.com
+2) press enter key
+3) click on sign link
+4) click on sign in button
+5) click on women&gt;tops&gt;jackets
+6) click on product link
+7) click on size
+8) click on color
+9) click on add to cart button
+10) click on add to cart icon
+11) click on proceed to checkout button
+12) click on next button
+13) click on place order button
+14) click on continue shopping button</t>
+  </si>
+  <si>
+    <t>1) https://magento.softwaretestingboard.com
+2) press enter key
+3) click on sign link
+4) click on sign in button
+5) click on women&gt;tops&gt;jackets
+6) click on product link
+7) click on add to wish list link</t>
+  </si>
+  <si>
+    <t>1) https://magento.softwaretestingboard.com
+2) press enter key
+3) click on sign link
+4) click on sign in button
+5) click on women&gt;tops&gt;jackets
+6) click on product link
+7) click on add to compare link</t>
+  </si>
+  <si>
+    <t>1) https://magento.softwaretestingboard.com
+2) press enter key
+3) click on sign link
+4) click on sign in button
+5) click on women&gt;tops&gt;jackets
+6) click on product link
+7) click on add to wish list link
+8) click on add to compare link
+9) click on comparison list link</t>
+  </si>
+  <si>
+    <t>1) https://magento.softwaretestingboard.com
+2) press enter key
+3) click on sign link
+4) click on sign in button
+5) click on women&gt;tops&gt;jackets
+6) click on product link
+7) click on add to wish list link
+8) click on add to compare link
+9) click on comparison list link
+10) click on compare product link</t>
+  </si>
+  <si>
+    <t>1) https://magento.softwaretestingboard.com
+2) press enter key
+3) click on sign link
+4) click on sign in button
+5) click on women&gt;tops&gt;jackets
+6) click on product link
+7) click on add to wish list link
+8) click on add to compare link
+9) click on compare button</t>
+  </si>
+  <si>
+    <t>check remove this item close icon</t>
+  </si>
+  <si>
+    <t>while clicking on remove this item close icon it is working properly and also display a proper message</t>
+  </si>
+  <si>
+    <t>1) https://magento.softwaretestingboard.com
+2) press enter key
+3) click on sign link
+4) click on sign in button
+5) click on women&gt;tops&gt;jackets
+6) click on product link
+7) click on add to wish list link
+8) click on add to compare link
+9) click on remove this item close icon</t>
+  </si>
+  <si>
+    <t>1) https://magento.softwaretestingboard.com
+2) press enter key
+3) click on sign link
+4) click on sign in button
+5) click on women&gt;tops&gt;jackets
+6) click on product link
+7) click on add to wish list link
+8) click on add to compare link
+9) click on remove this item close icon
+10) click on cancel button</t>
+  </si>
+  <si>
+    <t>1) https://magento.softwaretestingboard.com
+2) press enter key
+3) click on sign link
+4) click on sign in button
+5) click on women&gt;tops&gt;jackets
+6) click on product link
+7) click on add to wish list link
+8) click on add to compare link
+9) click on remove this item close icon
+10) click on ok button</t>
+  </si>
+  <si>
+    <t>1) https://magento.softwaretestingboard.com
+2) press enter key
+3) click on sign link
+4) click on sign in button
+5) click on women&gt;tops&gt;jackets
+6) click on product link
+7) click on add to wish list link
+8) click on add to compare link
+9) click on comparison list link
+10) click on compare product link
+11) click on print this test page link</t>
   </si>
 </sst>
 </file>
@@ -2010,8 +2141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C110"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2202,10 +2333,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
@@ -2216,7 +2347,7 @@
         <v>73</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
@@ -2609,7 +2740,7 @@
         <v>3005</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>94</v>
@@ -2631,10 +2762,10 @@
         <v>3007</v>
       </c>
       <c r="B56" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>302</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
@@ -2653,10 +2784,10 @@
         <v>3009</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
@@ -2697,10 +2828,10 @@
         <v>3013</v>
       </c>
       <c r="B62" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="C62" s="6" t="s">
         <v>312</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
@@ -2994,10 +3125,10 @@
         <v>3040</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>244</v>
+        <v>340</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>246</v>
+        <v>341</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
@@ -3005,10 +3136,10 @@
         <v>3041</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
@@ -3016,10 +3147,10 @@
         <v>3042</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
@@ -3181,8 +3312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C94" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E95" sqref="E95"/>
+    <sheetView tabSelected="1" topLeftCell="E104" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I105" sqref="I105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3995,7 +4126,7 @@
         <v>181</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>182</v>
@@ -4024,13 +4155,13 @@
         <v>181</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>182</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H29" s="10" t="s">
         <v>184</v>
@@ -4047,19 +4178,19 @@
         <v>16</v>
       </c>
       <c r="C30" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="E30" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="D30" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>255</v>
-      </c>
       <c r="F30" s="10" t="s">
         <v>182</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H30" s="10" t="s">
         <v>184</v>
@@ -4082,13 +4213,13 @@
         <v>181</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>182</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H31" s="10" t="s">
         <v>184</v>
@@ -4111,7 +4242,7 @@
         <v>181</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>182</v>
@@ -4140,13 +4271,13 @@
         <v>181</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F33" s="10" t="s">
         <v>182</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H33" s="10" t="s">
         <v>184</v>
@@ -4169,13 +4300,13 @@
         <v>181</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>182</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H34" s="10" t="s">
         <v>184</v>
@@ -4198,13 +4329,13 @@
         <v>181</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F35" s="10" t="s">
         <v>182</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H35" s="10" t="s">
         <v>184</v>
@@ -4227,7 +4358,7 @@
         <v>181</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F36" s="10" t="s">
         <v>182</v>
@@ -4256,7 +4387,7 @@
         <v>181</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F37" s="10" t="s">
         <v>182</v>
@@ -4285,7 +4416,7 @@
         <v>181</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F38" s="10" t="s">
         <v>182</v>
@@ -4314,7 +4445,7 @@
         <v>181</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F39" s="10" t="s">
         <v>182</v>
@@ -4343,7 +4474,7 @@
         <v>181</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F40" s="10" t="s">
         <v>182</v>
@@ -4372,7 +4503,7 @@
         <v>181</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F41" s="10" t="s">
         <v>182</v>
@@ -4430,7 +4561,7 @@
         <v>181</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F43" s="10" t="s">
         <v>182</v>
@@ -4459,13 +4590,13 @@
         <v>181</v>
       </c>
       <c r="E44" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="G44" s="4" t="s">
         <v>272</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>274</v>
       </c>
       <c r="H44" s="10" t="s">
         <v>184</v>
@@ -4488,7 +4619,7 @@
         <v>181</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F45" s="10" t="s">
         <v>182</v>
@@ -4517,7 +4648,7 @@
         <v>181</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F46" s="10" t="s">
         <v>182</v>
@@ -4546,7 +4677,7 @@
         <v>181</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F47" s="10" t="s">
         <v>182</v>
@@ -4575,13 +4706,13 @@
         <v>181</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F48" s="10" t="s">
         <v>182</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H48" s="10" t="s">
         <v>184</v>
@@ -4604,7 +4735,7 @@
         <v>181</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F49" s="10" t="s">
         <v>182</v>
@@ -4633,7 +4764,7 @@
         <v>181</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>182</v>
@@ -4662,13 +4793,13 @@
         <v>181</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F51" s="10" t="s">
         <v>182</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H51" s="10" t="s">
         <v>184</v>
@@ -4691,7 +4822,7 @@
         <v>181</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F52" s="10" t="s">
         <v>182</v>
@@ -4720,7 +4851,7 @@
         <v>181</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F53" s="10" t="s">
         <v>182</v>
@@ -4749,7 +4880,7 @@
         <v>181</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F54" s="10" t="s">
         <v>182</v>
@@ -4778,7 +4909,7 @@
         <v>181</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F55" s="10" t="s">
         <v>182</v>
@@ -4807,7 +4938,7 @@
         <v>181</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F56" s="10" t="s">
         <v>182</v>
@@ -4836,7 +4967,7 @@
         <v>181</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F57" s="10" t="s">
         <v>182</v>
@@ -4865,7 +4996,7 @@
         <v>181</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F58" s="10" t="s">
         <v>182</v>
@@ -4894,7 +5025,7 @@
         <v>181</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F59" s="10" t="s">
         <v>182</v>
@@ -4923,13 +5054,13 @@
         <v>181</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F60" s="10" t="s">
         <v>182</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H60" s="10" t="s">
         <v>184</v>
@@ -4952,7 +5083,7 @@
         <v>181</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F61" s="10" t="s">
         <v>182</v>
@@ -4981,7 +5112,7 @@
         <v>181</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F62" s="10" t="s">
         <v>182</v>
@@ -5010,7 +5141,7 @@
         <v>181</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F63" s="10" t="s">
         <v>182</v>
@@ -5039,7 +5170,7 @@
         <v>181</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F64" s="10" t="s">
         <v>182</v>
@@ -5068,7 +5199,7 @@
         <v>181</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F65" s="10" t="s">
         <v>182</v>
@@ -5097,7 +5228,7 @@
         <v>181</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F66" s="10" t="s">
         <v>182</v>
@@ -5120,13 +5251,13 @@
         <v>3005</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D67" s="10" t="s">
         <v>181</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F67" s="10" t="s">
         <v>182</v>
@@ -5155,7 +5286,7 @@
         <v>181</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F68" s="10" t="s">
         <v>182</v>
@@ -5178,19 +5309,19 @@
         <v>3007</v>
       </c>
       <c r="C69" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="G69" s="4" t="s">
         <v>302</v>
-      </c>
-      <c r="D69" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E69" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="F69" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>304</v>
       </c>
       <c r="H69" s="10" t="s">
         <v>184</v>
@@ -5213,7 +5344,7 @@
         <v>181</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F70" s="10" t="s">
         <v>182</v>
@@ -5236,19 +5367,19 @@
         <v>3009</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>181</v>
       </c>
       <c r="E71" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="G71" s="6" t="s">
         <v>306</v>
-      </c>
-      <c r="F71" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="G71" s="6" t="s">
-        <v>308</v>
       </c>
       <c r="H71" s="6" t="s">
         <v>184</v>
@@ -5271,7 +5402,7 @@
         <v>181</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F72" s="10" t="s">
         <v>182</v>
@@ -5300,7 +5431,7 @@
         <v>181</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F73" s="10" t="s">
         <v>182</v>
@@ -5329,7 +5460,7 @@
         <v>181</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F74" s="10" t="s">
         <v>182</v>
@@ -5352,19 +5483,19 @@
         <v>3013</v>
       </c>
       <c r="C75" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="G75" s="6" t="s">
         <v>312</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="E75" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="F75" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="G75" s="6" t="s">
-        <v>314</v>
       </c>
       <c r="H75" s="6" t="s">
         <v>184</v>
@@ -5381,13 +5512,13 @@
         <v>3014</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D76" s="10" t="s">
         <v>181</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F76" s="10" t="s">
         <v>182</v>
@@ -5416,7 +5547,7 @@
         <v>181</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F77" s="10" t="s">
         <v>182</v>
@@ -5445,7 +5576,7 @@
         <v>181</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F78" s="4" t="s">
         <v>182</v>
@@ -5474,7 +5605,7 @@
         <v>181</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F79" s="10" t="s">
         <v>182</v>
@@ -5503,7 +5634,7 @@
         <v>181</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F80" s="10" t="s">
         <v>182</v>
@@ -5532,7 +5663,7 @@
         <v>181</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F81" s="10" t="s">
         <v>182</v>
@@ -5561,7 +5692,7 @@
         <v>181</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F82" s="10" t="s">
         <v>182</v>
@@ -5590,7 +5721,7 @@
         <v>181</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F83" s="10" t="s">
         <v>182</v>
@@ -5619,7 +5750,7 @@
         <v>181</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F84" s="10" t="s">
         <v>182</v>
@@ -5648,7 +5779,7 @@
         <v>181</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F85" s="10" t="s">
         <v>182</v>
@@ -5675,7 +5806,7 @@
         <v>181</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F86" s="10" t="s">
         <v>182</v>
@@ -5704,7 +5835,7 @@
         <v>181</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F87" s="10" t="s">
         <v>182</v>
@@ -5733,7 +5864,7 @@
         <v>181</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F88" s="10" t="s">
         <v>182</v>
@@ -5762,7 +5893,7 @@
         <v>181</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F89" s="10" t="s">
         <v>182</v>
@@ -5791,7 +5922,7 @@
         <v>181</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F90" s="10" t="s">
         <v>182</v>
@@ -5820,7 +5951,7 @@
         <v>181</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F91" s="10" t="s">
         <v>182</v>
@@ -5849,7 +5980,7 @@
         <v>181</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F92" s="10" t="s">
         <v>182</v>
@@ -5878,7 +6009,7 @@
         <v>181</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F93" s="10" t="s">
         <v>182</v>
@@ -5907,7 +6038,7 @@
         <v>181</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F94" s="10" t="s">
         <v>182</v>
@@ -5922,7 +6053,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="95" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" s="13" customFormat="1" ht="243.75" x14ac:dyDescent="0.25">
       <c r="A95" s="10">
         <v>94</v>
       </c>
@@ -5936,12 +6067,14 @@
         <v>181</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>195</v>
+        <v>333</v>
       </c>
       <c r="F95" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="G95" s="10"/>
+      <c r="G95" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="H95" s="10" t="s">
         <v>184</v>
       </c>
@@ -5949,7 +6082,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="96" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" s="13" customFormat="1" ht="262.5" x14ac:dyDescent="0.25">
       <c r="A96" s="10">
         <v>95</v>
       </c>
@@ -5963,12 +6096,14 @@
         <v>181</v>
       </c>
       <c r="E96" s="11" t="s">
-        <v>195</v>
+        <v>334</v>
       </c>
       <c r="F96" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="G96" s="10"/>
+      <c r="G96" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="H96" s="10" t="s">
         <v>184</v>
       </c>
@@ -5976,7 +6111,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="97" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" s="13" customFormat="1" ht="131.25" x14ac:dyDescent="0.25">
       <c r="A97" s="10">
         <v>96</v>
       </c>
@@ -5990,12 +6125,14 @@
         <v>181</v>
       </c>
       <c r="E97" s="11" t="s">
-        <v>195</v>
+        <v>335</v>
       </c>
       <c r="F97" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="G97" s="10"/>
+      <c r="G97" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="H97" s="10" t="s">
         <v>184</v>
       </c>
@@ -6003,7 +6140,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="98" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" s="13" customFormat="1" ht="131.25" x14ac:dyDescent="0.25">
       <c r="A98" s="10">
         <v>97</v>
       </c>
@@ -6017,12 +6154,14 @@
         <v>181</v>
       </c>
       <c r="E98" s="11" t="s">
-        <v>195</v>
+        <v>336</v>
       </c>
       <c r="F98" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="G98" s="10"/>
+      <c r="G98" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="H98" s="10" t="s">
         <v>184</v>
       </c>
@@ -6030,7 +6169,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="99" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" s="13" customFormat="1" ht="168.75" x14ac:dyDescent="0.25">
       <c r="A99" s="10">
         <v>98</v>
       </c>
@@ -6044,12 +6183,14 @@
         <v>181</v>
       </c>
       <c r="E99" s="11" t="s">
-        <v>195</v>
+        <v>337</v>
       </c>
       <c r="F99" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="G99" s="10"/>
+      <c r="G99" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="H99" s="10" t="s">
         <v>184</v>
       </c>
@@ -6057,7 +6198,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" s="13" customFormat="1" ht="187.5" x14ac:dyDescent="0.25">
       <c r="A100" s="10">
         <v>99</v>
       </c>
@@ -6071,12 +6212,14 @@
         <v>181</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>195</v>
+        <v>338</v>
       </c>
       <c r="F100" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="G100" s="10"/>
+      <c r="G100" s="4" t="s">
+        <v>170</v>
+      </c>
       <c r="H100" s="10" t="s">
         <v>184</v>
       </c>
@@ -6084,26 +6227,28 @@
         <v>185</v>
       </c>
     </row>
-    <row r="101" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" s="13" customFormat="1" ht="168.75" x14ac:dyDescent="0.25">
       <c r="A101" s="10">
         <v>100</v>
       </c>
       <c r="B101" s="10">
         <v>3039</v>
       </c>
-      <c r="C101" s="10" t="s">
-        <v>100</v>
+      <c r="C101" s="4" t="s">
+        <v>242</v>
       </c>
       <c r="D101" s="10" t="s">
         <v>181</v>
       </c>
       <c r="E101" s="11" t="s">
-        <v>195</v>
+        <v>339</v>
       </c>
       <c r="F101" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="G101" s="10"/>
+      <c r="G101" s="4" t="s">
+        <v>243</v>
+      </c>
       <c r="H101" s="10" t="s">
         <v>184</v>
       </c>
@@ -6111,25 +6256,28 @@
         <v>185</v>
       </c>
     </row>
-    <row r="102" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" s="13" customFormat="1" ht="168.75" x14ac:dyDescent="0.25">
       <c r="A102" s="10">
         <v>101</v>
       </c>
       <c r="B102" s="10">
         <v>3040</v>
       </c>
-      <c r="C102" s="10" t="s">
-        <v>102</v>
+      <c r="C102" s="4" t="s">
+        <v>340</v>
       </c>
       <c r="D102" s="10" t="s">
         <v>181</v>
       </c>
       <c r="E102" s="11" t="s">
-        <v>195</v>
+        <v>342</v>
       </c>
       <c r="F102" s="10" t="s">
         <v>182</v>
       </c>
+      <c r="G102" s="4" t="s">
+        <v>341</v>
+      </c>
       <c r="H102" s="10" t="s">
         <v>184</v>
       </c>
@@ -6137,25 +6285,28 @@
         <v>185</v>
       </c>
     </row>
-    <row r="103" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" s="13" customFormat="1" ht="187.5" x14ac:dyDescent="0.25">
       <c r="A103" s="10">
         <v>102</v>
       </c>
       <c r="B103" s="10">
         <v>3041</v>
       </c>
-      <c r="C103" s="10" t="s">
-        <v>104</v>
+      <c r="C103" s="4" t="s">
+        <v>245</v>
       </c>
       <c r="D103" s="10" t="s">
         <v>181</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>195</v>
+        <v>343</v>
       </c>
       <c r="F103" s="10" t="s">
         <v>182</v>
       </c>
+      <c r="G103" s="4" t="s">
+        <v>246</v>
+      </c>
       <c r="H103" s="10" t="s">
         <v>184</v>
       </c>
@@ -6163,25 +6314,28 @@
         <v>185</v>
       </c>
     </row>
-    <row r="104" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" s="13" customFormat="1" ht="187.5" x14ac:dyDescent="0.25">
       <c r="A104" s="10">
         <v>103</v>
       </c>
       <c r="B104" s="10">
         <v>3042</v>
       </c>
-      <c r="C104" s="10" t="s">
-        <v>106</v>
+      <c r="C104" s="4" t="s">
+        <v>247</v>
       </c>
       <c r="D104" s="10" t="s">
         <v>181</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>195</v>
+        <v>344</v>
       </c>
       <c r="F104" s="10" t="s">
         <v>182</v>
       </c>
+      <c r="G104" s="4" t="s">
+        <v>248</v>
+      </c>
       <c r="H104" s="10" t="s">
         <v>184</v>
       </c>
@@ -6189,24 +6343,27 @@
         <v>185</v>
       </c>
     </row>
-    <row r="105" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" s="13" customFormat="1" ht="206.25" x14ac:dyDescent="0.25">
       <c r="A105" s="10">
         <v>104</v>
       </c>
       <c r="B105" s="10">
         <v>3043</v>
       </c>
-      <c r="C105" s="10" t="s">
-        <v>108</v>
+      <c r="C105" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="D105" s="10" t="s">
         <v>181</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>195</v>
+        <v>345</v>
       </c>
       <c r="F105" s="10" t="s">
         <v>182</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="H105" s="10" t="s">
         <v>184</v>
@@ -6222,8 +6379,8 @@
       <c r="B106" s="10">
         <v>3044</v>
       </c>
-      <c r="C106" s="10" t="s">
-        <v>110</v>
+      <c r="C106" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="D106" s="10" t="s">
         <v>181</v>
@@ -6248,8 +6405,8 @@
       <c r="B107" s="10">
         <v>3045</v>
       </c>
-      <c r="C107" s="10" t="s">
-        <v>112</v>
+      <c r="C107" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="D107" s="10" t="s">
         <v>181</v>
@@ -6274,8 +6431,8 @@
       <c r="B108" s="10">
         <v>3046</v>
       </c>
-      <c r="C108" s="10" t="s">
-        <v>114</v>
+      <c r="C108" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="D108" s="10" t="s">
         <v>181</v>
@@ -6300,8 +6457,8 @@
       <c r="B109" s="10">
         <v>3047</v>
       </c>
-      <c r="C109" s="10" t="s">
-        <v>116</v>
+      <c r="C109" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="D109" s="10" t="s">
         <v>181</v>
@@ -6323,6 +6480,9 @@
       <c r="A110" s="10">
         <v>109</v>
       </c>
+      <c r="C110" s="4" t="s">
+        <v>110</v>
+      </c>
       <c r="D110" s="10" t="s">
         <v>181</v>
       </c>
@@ -6343,6 +6503,9 @@
       <c r="A111" s="10">
         <v>110</v>
       </c>
+      <c r="C111" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="D111" s="10" t="s">
         <v>181</v>
       </c>
@@ -6363,6 +6526,9 @@
       <c r="A112" s="10">
         <v>111</v>
       </c>
+      <c r="C112" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="D112" s="10" t="s">
         <v>181</v>
       </c>
@@ -6382,6 +6548,9 @@
     <row r="113" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A113" s="10">
         <v>112</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="D113" s="10" t="s">
         <v>181</v>

--- a/Extra Work/hlr for megneto.softwaretestingboard.com.xlsx
+++ b/Extra Work/hlr for megneto.softwaretestingboard.com.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="354">
   <si>
     <t>functionality id</t>
   </si>
@@ -1683,6 +1683,70 @@
 9) click on comparison list link
 10) click on compare product link
 11) click on print this test page link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) https://magento.softwaretestingboard.com
+2) press enter key
+3) click on sign link
+4) click on sign in button
+5) click on about us link
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) https://magento.softwaretestingboard.com
+2) press enter key
+3) click on sign link
+4) click on sign in button
+5) click on customer service link
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) https://magento.softwaretestingboard.com
+2) press enter key
+3) click on sign link
+4) click on sign in button
+5) click on search terms link
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) https://magento.softwaretestingboard.com
+2) press enter key
+3) click on sign link
+4) click on sign in button
+5) click on privacy and cookie link
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) https://magento.softwaretestingboard.com
+2) press enter key
+3) click on sign link
+4) click on sign in button
+5) click on advance search link
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) https://magento.softwaretestingboard.com
+2) press enter key
+3) click on sign link
+4) click on sign in button
+5) click on contact us link
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) https://magento.softwaretestingboard.com
+2) press enter key
+3) click on sign link
+4) click on sign in button
+5) click on subscribe button
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) https://magento.softwaretestingboard.com
+2) press enter key
+3) click on sign link
+4) click on sign in button
+5) click on sign out link
+</t>
   </si>
 </sst>
 </file>
@@ -1759,7 +1823,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1793,11 +1857,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1835,6 +1912,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2141,8 +2235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C110"/>
   <sheetViews>
-    <sheetView topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92"/>
+    <sheetView topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3310,10 +3404,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I222"/>
+  <dimension ref="A1:L222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E104" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I105" sqref="I105"/>
+    <sheetView tabSelected="1" topLeftCell="E111" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L112" sqref="L112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6372,7 +6466,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="106" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" s="13" customFormat="1" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A106" s="10">
         <v>105</v>
       </c>
@@ -6386,11 +6480,14 @@
         <v>181</v>
       </c>
       <c r="E106" s="11" t="s">
-        <v>195</v>
+        <v>346</v>
       </c>
       <c r="F106" s="10" t="s">
         <v>182</v>
       </c>
+      <c r="G106" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="H106" s="10" t="s">
         <v>184</v>
       </c>
@@ -6398,7 +6495,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="107" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" s="13" customFormat="1" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A107" s="10">
         <v>106</v>
       </c>
@@ -6412,11 +6509,14 @@
         <v>181</v>
       </c>
       <c r="E107" s="11" t="s">
-        <v>195</v>
+        <v>347</v>
       </c>
       <c r="F107" s="10" t="s">
         <v>182</v>
       </c>
+      <c r="G107" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="H107" s="10" t="s">
         <v>184</v>
       </c>
@@ -6424,7 +6524,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="108" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" s="13" customFormat="1" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A108" s="10">
         <v>107</v>
       </c>
@@ -6438,11 +6538,14 @@
         <v>181</v>
       </c>
       <c r="E108" s="11" t="s">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="F108" s="10" t="s">
         <v>182</v>
       </c>
+      <c r="G108" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="H108" s="10" t="s">
         <v>184</v>
       </c>
@@ -6450,7 +6553,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="109" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" s="13" customFormat="1" ht="131.25" x14ac:dyDescent="0.25">
       <c r="A109" s="10">
         <v>108</v>
       </c>
@@ -6464,11 +6567,14 @@
         <v>181</v>
       </c>
       <c r="E109" s="11" t="s">
-        <v>195</v>
+        <v>349</v>
       </c>
       <c r="F109" s="10" t="s">
         <v>182</v>
       </c>
+      <c r="G109" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="H109" s="10" t="s">
         <v>184</v>
       </c>
@@ -6476,10 +6582,13 @@
         <v>185</v>
       </c>
     </row>
-    <row r="110" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" s="13" customFormat="1" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A110" s="10">
         <v>109</v>
       </c>
+      <c r="B110" s="10">
+        <v>3048</v>
+      </c>
       <c r="C110" s="4" t="s">
         <v>110</v>
       </c>
@@ -6487,11 +6596,14 @@
         <v>181</v>
       </c>
       <c r="E110" s="11" t="s">
-        <v>195</v>
+        <v>350</v>
       </c>
       <c r="F110" s="10" t="s">
         <v>182</v>
       </c>
+      <c r="G110" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="H110" s="10" t="s">
         <v>184</v>
       </c>
@@ -6499,10 +6611,13 @@
         <v>185</v>
       </c>
     </row>
-    <row r="111" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" s="13" customFormat="1" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A111" s="10">
         <v>110</v>
       </c>
+      <c r="B111" s="10">
+        <v>3049</v>
+      </c>
       <c r="C111" s="4" t="s">
         <v>112</v>
       </c>
@@ -6510,11 +6625,14 @@
         <v>181</v>
       </c>
       <c r="E111" s="11" t="s">
-        <v>195</v>
+        <v>351</v>
       </c>
       <c r="F111" s="10" t="s">
         <v>182</v>
       </c>
+      <c r="G111" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="H111" s="10" t="s">
         <v>184</v>
       </c>
@@ -6522,33 +6640,42 @@
         <v>185</v>
       </c>
     </row>
-    <row r="112" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="10">
+    <row r="112" spans="1:9" s="13" customFormat="1" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A112" s="15">
         <v>111</v>
       </c>
-      <c r="C112" s="4" t="s">
+      <c r="B112" s="10">
+        <v>3050</v>
+      </c>
+      <c r="C112" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="D112" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E112" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F112" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H112" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I112" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="D112" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="E112" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="F112" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="G112" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="H112" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="I112" s="15" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" s="21" customFormat="1" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A113" s="10">
         <v>112</v>
       </c>
+      <c r="B113" s="10">
+        <v>3051</v>
+      </c>
       <c r="C113" s="4" t="s">
         <v>116</v>
       </c>
@@ -6556,2197 +6683,895 @@
         <v>181</v>
       </c>
       <c r="E113" s="11" t="s">
-        <v>195</v>
+        <v>353</v>
       </c>
       <c r="F113" s="10" t="s">
         <v>182</v>
       </c>
+      <c r="G113" s="4" t="s">
+        <v>117</v>
+      </c>
       <c r="H113" s="10" t="s">
         <v>184</v>
       </c>
       <c r="I113" s="10" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A114" s="10">
-        <v>113</v>
-      </c>
-      <c r="D114" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E114" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F114" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H114" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I114" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="10">
-        <v>114</v>
-      </c>
-      <c r="D115" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E115" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F115" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H115" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I115" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="10">
-        <v>115</v>
-      </c>
-      <c r="D116" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E116" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F116" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H116" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I116" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="10">
-        <v>116</v>
-      </c>
-      <c r="D117" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E117" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F117" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H117" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I117" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="10">
-        <v>117</v>
-      </c>
-      <c r="D118" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E118" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F118" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H118" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I118" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A119" s="10">
-        <v>118</v>
-      </c>
-      <c r="D119" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E119" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F119" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H119" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I119" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A120" s="10">
-        <v>119</v>
-      </c>
-      <c r="D120" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E120" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F120" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H120" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I120" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A121" s="10">
-        <v>120</v>
-      </c>
-      <c r="D121" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E121" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F121" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H121" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I121" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A122" s="10">
-        <v>121</v>
-      </c>
-      <c r="D122" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E122" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F122" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H122" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I122" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A123" s="10">
-        <v>122</v>
-      </c>
-      <c r="D123" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E123" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F123" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H123" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I123" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A124" s="10">
-        <v>123</v>
-      </c>
-      <c r="D124" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E124" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F124" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H124" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I124" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A125" s="10">
-        <v>124</v>
-      </c>
-      <c r="D125" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E125" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F125" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H125" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I125" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A126" s="10">
-        <v>125</v>
-      </c>
-      <c r="D126" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E126" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F126" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H126" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I126" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A127" s="10">
-        <v>126</v>
-      </c>
-      <c r="D127" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E127" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F127" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H127" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I127" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A128" s="10">
-        <v>127</v>
-      </c>
-      <c r="D128" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E128" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F128" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H128" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I128" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A129" s="10">
-        <v>128</v>
-      </c>
-      <c r="D129" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E129" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F129" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H129" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I129" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A130" s="10">
-        <v>129</v>
-      </c>
-      <c r="D130" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E130" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F130" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H130" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I130" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A131" s="10">
-        <v>130</v>
-      </c>
-      <c r="D131" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E131" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F131" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H131" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I131" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A132" s="10">
-        <v>131</v>
-      </c>
-      <c r="D132" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E132" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F132" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H132" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I132" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A133" s="10">
-        <v>132</v>
-      </c>
-      <c r="D133" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E133" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F133" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H133" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I133" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A134" s="10">
-        <v>133</v>
-      </c>
-      <c r="D134" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E134" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F134" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H134" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I134" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A135" s="10">
-        <v>134</v>
-      </c>
-      <c r="D135" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E135" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F135" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H135" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I135" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A136" s="10">
-        <v>135</v>
-      </c>
-      <c r="D136" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E136" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F136" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H136" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I136" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A137" s="10">
-        <v>136</v>
-      </c>
-      <c r="D137" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E137" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F137" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H137" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I137" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A138" s="10">
-        <v>137</v>
-      </c>
-      <c r="D138" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E138" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F138" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H138" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I138" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A139" s="10">
-        <v>138</v>
-      </c>
-      <c r="D139" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E139" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F139" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H139" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I139" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A140" s="10">
-        <v>139</v>
-      </c>
-      <c r="D140" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E140" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F140" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H140" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I140" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A141" s="10">
-        <v>140</v>
-      </c>
-      <c r="D141" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E141" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F141" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H141" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I141" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A142" s="10">
-        <v>141</v>
-      </c>
-      <c r="D142" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E142" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F142" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H142" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I142" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A143" s="10">
-        <v>142</v>
-      </c>
-      <c r="D143" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E143" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F143" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H143" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I143" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A144" s="10">
-        <v>143</v>
-      </c>
-      <c r="D144" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E144" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F144" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H144" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I144" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A145" s="10">
-        <v>144</v>
-      </c>
-      <c r="D145" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E145" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F145" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H145" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I145" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A146" s="10">
-        <v>145</v>
-      </c>
-      <c r="D146" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E146" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F146" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H146" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I146" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A147" s="10">
-        <v>146</v>
-      </c>
-      <c r="D147" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E147" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F147" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H147" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I147" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A148" s="10">
-        <v>147</v>
-      </c>
-      <c r="D148" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E148" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F148" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H148" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I148" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A149" s="10">
-        <v>148</v>
-      </c>
-      <c r="D149" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E149" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F149" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H149" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I149" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A150" s="10">
-        <v>149</v>
-      </c>
-      <c r="D150" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E150" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F150" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H150" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I150" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A151" s="10">
-        <v>150</v>
-      </c>
-      <c r="D151" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E151" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F151" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H151" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I151" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A152" s="10">
-        <v>151</v>
-      </c>
-      <c r="D152" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E152" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F152" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H152" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I152" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A153" s="10">
-        <v>152</v>
-      </c>
-      <c r="D153" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E153" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F153" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H153" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I153" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A154" s="10">
-        <v>153</v>
-      </c>
-      <c r="D154" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E154" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F154" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H154" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I154" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A155" s="10">
-        <v>154</v>
-      </c>
-      <c r="D155" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E155" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F155" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H155" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I155" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A156" s="10">
-        <v>155</v>
-      </c>
-      <c r="D156" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E156" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F156" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H156" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I156" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A157" s="10">
-        <v>156</v>
-      </c>
-      <c r="D157" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E157" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F157" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H157" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I157" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A158" s="10">
-        <v>157</v>
-      </c>
-      <c r="D158" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E158" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F158" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H158" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I158" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A159" s="10">
-        <v>158</v>
-      </c>
-      <c r="D159" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E159" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F159" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H159" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I159" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A160" s="10">
-        <v>159</v>
-      </c>
-      <c r="D160" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E160" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F160" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H160" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I160" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A161" s="10">
-        <v>160</v>
-      </c>
-      <c r="D161" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E161" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F161" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H161" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I161" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A162" s="10">
-        <v>161</v>
-      </c>
-      <c r="D162" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E162" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F162" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H162" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I162" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A163" s="10">
-        <v>162</v>
-      </c>
-      <c r="D163" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E163" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F163" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H163" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I163" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A164" s="10">
-        <v>163</v>
-      </c>
-      <c r="D164" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E164" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F164" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H164" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I164" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A165" s="10">
-        <v>164</v>
-      </c>
-      <c r="D165" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E165" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F165" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H165" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I165" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A166" s="10">
-        <v>165</v>
-      </c>
-      <c r="D166" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E166" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F166" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H166" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I166" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A167" s="10">
-        <v>166</v>
-      </c>
-      <c r="D167" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E167" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F167" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H167" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I167" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A168" s="10">
-        <v>167</v>
-      </c>
-      <c r="D168" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E168" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F168" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H168" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I168" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A169" s="10">
-        <v>168</v>
-      </c>
-      <c r="D169" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E169" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F169" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H169" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I169" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A170" s="10">
-        <v>169</v>
-      </c>
-      <c r="D170" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E170" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F170" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H170" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I170" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A171" s="10">
-        <v>170</v>
-      </c>
-      <c r="D171" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E171" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F171" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H171" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I171" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A172" s="10">
-        <v>171</v>
-      </c>
-      <c r="D172" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E172" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F172" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H172" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I172" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A173" s="10">
-        <v>172</v>
-      </c>
-      <c r="D173" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E173" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F173" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H173" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I173" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A174" s="10">
-        <v>173</v>
-      </c>
-      <c r="D174" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E174" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F174" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H174" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I174" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A175" s="10">
-        <v>174</v>
-      </c>
-      <c r="D175" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E175" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F175" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H175" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I175" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A176" s="10">
-        <v>175</v>
-      </c>
-      <c r="D176" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E176" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F176" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H176" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I176" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A177" s="10">
-        <v>176</v>
-      </c>
-      <c r="D177" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E177" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F177" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H177" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I177" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A178" s="10">
-        <v>177</v>
-      </c>
-      <c r="D178" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E178" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F178" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H178" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I178" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A179" s="10">
-        <v>178</v>
-      </c>
-      <c r="D179" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E179" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F179" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H179" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I179" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A180" s="10">
-        <v>179</v>
-      </c>
-      <c r="D180" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E180" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F180" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H180" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I180" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A181" s="10">
-        <v>180</v>
-      </c>
-      <c r="D181" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E181" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F181" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H181" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I181" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A182" s="10">
-        <v>181</v>
-      </c>
-      <c r="D182" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E182" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F182" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H182" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I182" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A183" s="10">
-        <v>182</v>
-      </c>
-      <c r="D183" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E183" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F183" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H183" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I183" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A184" s="10">
-        <v>183</v>
-      </c>
-      <c r="D184" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E184" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F184" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H184" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I184" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A185" s="10">
-        <v>184</v>
-      </c>
-      <c r="D185" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E185" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F185" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H185" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I185" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A186" s="10">
-        <v>185</v>
-      </c>
-      <c r="D186" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E186" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F186" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H186" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I186" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A187" s="10">
-        <v>186</v>
-      </c>
-      <c r="D187" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E187" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F187" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H187" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I187" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A188" s="10">
-        <v>187</v>
-      </c>
-      <c r="D188" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E188" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F188" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H188" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I188" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A189" s="10">
-        <v>188</v>
-      </c>
-      <c r="D189" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E189" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F189" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H189" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I189" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A190" s="10">
-        <v>189</v>
-      </c>
-      <c r="D190" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E190" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F190" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H190" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I190" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A191" s="10">
-        <v>190</v>
-      </c>
-      <c r="D191" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E191" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F191" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H191" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I191" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A192" s="10">
-        <v>191</v>
-      </c>
-      <c r="D192" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E192" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F192" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H192" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I192" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A193" s="10">
-        <v>192</v>
-      </c>
-      <c r="D193" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E193" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F193" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H193" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I193" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A194" s="10">
-        <v>193</v>
-      </c>
-      <c r="D194" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E194" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F194" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H194" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I194" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A195" s="10">
-        <v>194</v>
-      </c>
-      <c r="D195" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E195" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F195" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H195" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I195" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A196" s="10">
-        <v>195</v>
-      </c>
-      <c r="D196" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E196" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F196" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H196" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I196" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A197" s="10">
-        <v>196</v>
-      </c>
-      <c r="D197" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E197" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F197" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H197" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I197" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A198" s="10">
-        <v>197</v>
-      </c>
-      <c r="D198" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E198" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F198" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H198" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I198" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A199" s="10">
-        <v>198</v>
-      </c>
-      <c r="D199" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E199" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F199" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H199" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I199" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A200" s="10">
-        <v>199</v>
-      </c>
-      <c r="D200" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E200" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F200" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H200" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I200" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A201" s="10">
-        <v>200</v>
-      </c>
-      <c r="D201" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E201" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F201" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H201" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I201" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A202" s="10">
-        <v>201</v>
-      </c>
-      <c r="D202" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E202" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F202" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H202" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I202" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A203" s="10">
-        <v>202</v>
-      </c>
-      <c r="D203" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E203" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F203" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H203" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I203" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A204" s="10">
-        <v>203</v>
-      </c>
-      <c r="D204" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E204" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F204" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H204" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I204" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A205" s="10">
-        <v>204</v>
-      </c>
-      <c r="D205" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E205" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F205" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H205" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I205" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A206" s="10">
-        <v>205</v>
-      </c>
-      <c r="D206" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E206" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F206" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H206" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I206" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A207" s="10">
-        <v>206</v>
-      </c>
-      <c r="D207" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E207" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F207" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H207" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I207" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A208" s="10">
-        <v>207</v>
-      </c>
-      <c r="D208" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E208" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F208" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H208" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I208" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A209" s="10">
-        <v>208</v>
-      </c>
-      <c r="D209" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E209" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F209" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H209" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I209" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A210" s="10">
-        <v>209</v>
-      </c>
-      <c r="D210" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E210" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F210" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H210" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I210" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A211" s="10">
-        <v>210</v>
-      </c>
-      <c r="D211" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E211" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F211" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H211" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I211" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A212" s="10">
-        <v>211</v>
-      </c>
-      <c r="D212" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E212" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F212" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H212" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I212" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A213" s="10">
-        <v>212</v>
-      </c>
-      <c r="D213" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E213" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F213" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H213" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I213" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A214" s="10">
-        <v>213</v>
-      </c>
-      <c r="D214" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E214" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F214" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H214" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I214" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A215" s="10">
-        <v>214</v>
-      </c>
-      <c r="D215" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E215" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F215" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H215" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I215" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A216" s="10">
-        <v>215</v>
-      </c>
-      <c r="D216" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E216" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F216" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H216" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I216" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A217" s="10">
-        <v>216</v>
-      </c>
-      <c r="D217" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E217" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F217" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H217" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I217" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A218" s="10">
-        <v>217</v>
-      </c>
-      <c r="D218" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E218" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F218" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H218" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I218" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A219" s="10">
-        <v>218</v>
-      </c>
-      <c r="D219" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E219" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F219" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H219" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I219" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A220" s="10">
-        <v>219</v>
-      </c>
-      <c r="D220" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E220" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F220" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H220" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I220" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A221" s="10">
-        <v>220</v>
-      </c>
-      <c r="D221" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E221" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F221" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H221" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I221" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" s="13" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A222" s="10">
-        <v>221</v>
-      </c>
-      <c r="D222" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E222" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F222" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H222" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I222" s="10" t="s">
-        <v>185</v>
-      </c>
+      <c r="J113" s="19"/>
+      <c r="K113" s="19"/>
+      <c r="L113" s="19"/>
+    </row>
+    <row r="114" spans="1:12" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A114" s="18"/>
+      <c r="D114" s="18"/>
+      <c r="E114" s="20"/>
+      <c r="F114" s="18"/>
+      <c r="H114" s="18"/>
+      <c r="I114" s="18"/>
+    </row>
+    <row r="115" spans="1:12" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A115" s="18"/>
+      <c r="D115" s="18"/>
+      <c r="E115" s="20"/>
+      <c r="F115" s="18"/>
+      <c r="H115" s="18"/>
+      <c r="I115" s="18"/>
+    </row>
+    <row r="116" spans="1:12" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A116" s="18"/>
+      <c r="D116" s="18"/>
+      <c r="E116" s="20"/>
+      <c r="F116" s="18"/>
+      <c r="H116" s="18"/>
+      <c r="I116" s="18"/>
+    </row>
+    <row r="117" spans="1:12" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A117" s="18"/>
+      <c r="D117" s="18"/>
+      <c r="E117" s="20"/>
+      <c r="F117" s="18"/>
+      <c r="H117" s="18"/>
+      <c r="I117" s="18"/>
+    </row>
+    <row r="118" spans="1:12" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A118" s="18"/>
+      <c r="D118" s="18"/>
+      <c r="E118" s="20"/>
+      <c r="F118" s="18"/>
+      <c r="H118" s="18"/>
+      <c r="I118" s="18"/>
+    </row>
+    <row r="119" spans="1:12" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A119" s="18"/>
+      <c r="D119" s="18"/>
+      <c r="E119" s="20"/>
+      <c r="F119" s="18"/>
+      <c r="H119" s="18"/>
+      <c r="I119" s="18"/>
+    </row>
+    <row r="120" spans="1:12" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A120" s="18"/>
+      <c r="D120" s="18"/>
+      <c r="E120" s="20"/>
+      <c r="F120" s="18"/>
+      <c r="H120" s="18"/>
+      <c r="I120" s="18"/>
+    </row>
+    <row r="121" spans="1:12" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A121" s="18"/>
+      <c r="D121" s="18"/>
+      <c r="E121" s="20"/>
+      <c r="F121" s="18"/>
+      <c r="H121" s="18"/>
+      <c r="I121" s="18"/>
+    </row>
+    <row r="122" spans="1:12" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A122" s="18"/>
+      <c r="D122" s="18"/>
+      <c r="E122" s="20"/>
+      <c r="F122" s="18"/>
+      <c r="H122" s="18"/>
+      <c r="I122" s="18"/>
+    </row>
+    <row r="123" spans="1:12" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A123" s="18"/>
+      <c r="D123" s="18"/>
+      <c r="E123" s="20"/>
+      <c r="F123" s="18"/>
+      <c r="H123" s="18"/>
+      <c r="I123" s="18"/>
+    </row>
+    <row r="124" spans="1:12" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A124" s="18"/>
+      <c r="D124" s="18"/>
+      <c r="E124" s="20"/>
+      <c r="F124" s="18"/>
+      <c r="H124" s="18"/>
+      <c r="I124" s="18"/>
+    </row>
+    <row r="125" spans="1:12" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A125" s="18"/>
+      <c r="D125" s="18"/>
+      <c r="E125" s="20"/>
+      <c r="F125" s="18"/>
+      <c r="H125" s="18"/>
+      <c r="I125" s="18"/>
+    </row>
+    <row r="126" spans="1:12" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A126" s="18"/>
+      <c r="D126" s="18"/>
+      <c r="E126" s="20"/>
+      <c r="F126" s="18"/>
+      <c r="H126" s="18"/>
+      <c r="I126" s="18"/>
+    </row>
+    <row r="127" spans="1:12" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A127" s="18"/>
+      <c r="D127" s="18"/>
+      <c r="E127" s="20"/>
+      <c r="F127" s="18"/>
+      <c r="H127" s="18"/>
+      <c r="I127" s="18"/>
+    </row>
+    <row r="128" spans="1:12" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A128" s="18"/>
+      <c r="D128" s="18"/>
+      <c r="E128" s="20"/>
+      <c r="F128" s="18"/>
+      <c r="H128" s="18"/>
+      <c r="I128" s="18"/>
+    </row>
+    <row r="129" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A129" s="18"/>
+      <c r="D129" s="18"/>
+      <c r="E129" s="20"/>
+      <c r="F129" s="18"/>
+      <c r="H129" s="18"/>
+      <c r="I129" s="18"/>
+    </row>
+    <row r="130" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A130" s="18"/>
+      <c r="D130" s="18"/>
+      <c r="E130" s="20"/>
+      <c r="F130" s="18"/>
+      <c r="H130" s="18"/>
+      <c r="I130" s="18"/>
+    </row>
+    <row r="131" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A131" s="18"/>
+      <c r="D131" s="18"/>
+      <c r="E131" s="20"/>
+      <c r="F131" s="18"/>
+      <c r="H131" s="18"/>
+      <c r="I131" s="18"/>
+    </row>
+    <row r="132" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A132" s="18"/>
+      <c r="D132" s="18"/>
+      <c r="E132" s="20"/>
+      <c r="F132" s="18"/>
+      <c r="H132" s="18"/>
+      <c r="I132" s="18"/>
+    </row>
+    <row r="133" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A133" s="18"/>
+      <c r="D133" s="18"/>
+      <c r="E133" s="20"/>
+      <c r="F133" s="18"/>
+      <c r="H133" s="18"/>
+      <c r="I133" s="18"/>
+    </row>
+    <row r="134" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A134" s="18"/>
+      <c r="D134" s="18"/>
+      <c r="E134" s="20"/>
+      <c r="F134" s="18"/>
+      <c r="H134" s="18"/>
+      <c r="I134" s="18"/>
+    </row>
+    <row r="135" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A135" s="18"/>
+      <c r="D135" s="18"/>
+      <c r="E135" s="20"/>
+      <c r="F135" s="18"/>
+      <c r="H135" s="18"/>
+      <c r="I135" s="18"/>
+    </row>
+    <row r="136" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A136" s="18"/>
+      <c r="D136" s="18"/>
+      <c r="E136" s="20"/>
+      <c r="F136" s="18"/>
+      <c r="H136" s="18"/>
+      <c r="I136" s="18"/>
+    </row>
+    <row r="137" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A137" s="18"/>
+      <c r="D137" s="18"/>
+      <c r="E137" s="20"/>
+      <c r="F137" s="18"/>
+      <c r="H137" s="18"/>
+      <c r="I137" s="18"/>
+    </row>
+    <row r="138" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A138" s="18"/>
+      <c r="D138" s="18"/>
+      <c r="E138" s="20"/>
+      <c r="F138" s="18"/>
+      <c r="H138" s="18"/>
+      <c r="I138" s="18"/>
+    </row>
+    <row r="139" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A139" s="18"/>
+      <c r="D139" s="18"/>
+      <c r="E139" s="20"/>
+      <c r="F139" s="18"/>
+      <c r="H139" s="18"/>
+      <c r="I139" s="18"/>
+    </row>
+    <row r="140" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A140" s="18"/>
+      <c r="D140" s="18"/>
+      <c r="E140" s="20"/>
+      <c r="F140" s="18"/>
+      <c r="H140" s="18"/>
+      <c r="I140" s="18"/>
+    </row>
+    <row r="141" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A141" s="18"/>
+      <c r="D141" s="18"/>
+      <c r="E141" s="20"/>
+      <c r="F141" s="18"/>
+      <c r="H141" s="18"/>
+      <c r="I141" s="18"/>
+    </row>
+    <row r="142" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A142" s="18"/>
+      <c r="D142" s="18"/>
+      <c r="E142" s="20"/>
+      <c r="F142" s="18"/>
+      <c r="H142" s="18"/>
+      <c r="I142" s="18"/>
+    </row>
+    <row r="143" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A143" s="18"/>
+      <c r="D143" s="18"/>
+      <c r="E143" s="20"/>
+      <c r="F143" s="18"/>
+      <c r="H143" s="18"/>
+      <c r="I143" s="18"/>
+    </row>
+    <row r="144" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A144" s="18"/>
+      <c r="D144" s="18"/>
+      <c r="E144" s="20"/>
+      <c r="F144" s="18"/>
+      <c r="H144" s="18"/>
+      <c r="I144" s="18"/>
+    </row>
+    <row r="145" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A145" s="18"/>
+      <c r="D145" s="18"/>
+      <c r="E145" s="20"/>
+      <c r="F145" s="18"/>
+      <c r="H145" s="18"/>
+      <c r="I145" s="18"/>
+    </row>
+    <row r="146" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A146" s="18"/>
+      <c r="D146" s="18"/>
+      <c r="E146" s="20"/>
+      <c r="F146" s="18"/>
+      <c r="H146" s="18"/>
+      <c r="I146" s="18"/>
+    </row>
+    <row r="147" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A147" s="18"/>
+      <c r="D147" s="18"/>
+      <c r="E147" s="20"/>
+      <c r="F147" s="18"/>
+      <c r="H147" s="18"/>
+      <c r="I147" s="18"/>
+    </row>
+    <row r="148" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A148" s="18"/>
+      <c r="D148" s="18"/>
+      <c r="E148" s="20"/>
+      <c r="F148" s="18"/>
+      <c r="H148" s="18"/>
+      <c r="I148" s="18"/>
+    </row>
+    <row r="149" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A149" s="18"/>
+      <c r="D149" s="18"/>
+      <c r="E149" s="20"/>
+      <c r="F149" s="18"/>
+      <c r="H149" s="18"/>
+      <c r="I149" s="18"/>
+    </row>
+    <row r="150" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A150" s="18"/>
+      <c r="D150" s="18"/>
+      <c r="E150" s="20"/>
+      <c r="F150" s="18"/>
+      <c r="H150" s="18"/>
+      <c r="I150" s="18"/>
+    </row>
+    <row r="151" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A151" s="18"/>
+      <c r="D151" s="18"/>
+      <c r="E151" s="20"/>
+      <c r="F151" s="18"/>
+      <c r="H151" s="18"/>
+      <c r="I151" s="18"/>
+    </row>
+    <row r="152" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A152" s="18"/>
+      <c r="D152" s="18"/>
+      <c r="E152" s="20"/>
+      <c r="F152" s="18"/>
+      <c r="H152" s="18"/>
+      <c r="I152" s="18"/>
+    </row>
+    <row r="153" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A153" s="18"/>
+      <c r="D153" s="18"/>
+      <c r="E153" s="20"/>
+      <c r="F153" s="18"/>
+      <c r="H153" s="18"/>
+      <c r="I153" s="18"/>
+    </row>
+    <row r="154" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A154" s="18"/>
+      <c r="D154" s="18"/>
+      <c r="E154" s="20"/>
+      <c r="F154" s="18"/>
+      <c r="H154" s="18"/>
+      <c r="I154" s="18"/>
+    </row>
+    <row r="155" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A155" s="18"/>
+      <c r="D155" s="18"/>
+      <c r="E155" s="20"/>
+      <c r="F155" s="18"/>
+      <c r="H155" s="18"/>
+      <c r="I155" s="18"/>
+    </row>
+    <row r="156" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A156" s="18"/>
+      <c r="D156" s="18"/>
+      <c r="E156" s="20"/>
+      <c r="F156" s="18"/>
+      <c r="H156" s="18"/>
+      <c r="I156" s="18"/>
+    </row>
+    <row r="157" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A157" s="18"/>
+      <c r="D157" s="18"/>
+      <c r="E157" s="20"/>
+      <c r="F157" s="18"/>
+      <c r="H157" s="18"/>
+      <c r="I157" s="18"/>
+    </row>
+    <row r="158" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A158" s="18"/>
+      <c r="D158" s="18"/>
+      <c r="E158" s="20"/>
+      <c r="F158" s="18"/>
+      <c r="H158" s="18"/>
+      <c r="I158" s="18"/>
+    </row>
+    <row r="159" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A159" s="18"/>
+      <c r="D159" s="18"/>
+      <c r="E159" s="20"/>
+      <c r="F159" s="18"/>
+      <c r="H159" s="18"/>
+      <c r="I159" s="18"/>
+    </row>
+    <row r="160" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A160" s="18"/>
+      <c r="D160" s="18"/>
+      <c r="E160" s="20"/>
+      <c r="F160" s="18"/>
+      <c r="H160" s="18"/>
+      <c r="I160" s="18"/>
+    </row>
+    <row r="161" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A161" s="18"/>
+      <c r="D161" s="18"/>
+      <c r="E161" s="20"/>
+      <c r="F161" s="18"/>
+      <c r="H161" s="18"/>
+      <c r="I161" s="18"/>
+    </row>
+    <row r="162" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A162" s="18"/>
+      <c r="D162" s="18"/>
+      <c r="E162" s="20"/>
+      <c r="F162" s="18"/>
+      <c r="H162" s="18"/>
+      <c r="I162" s="18"/>
+    </row>
+    <row r="163" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A163" s="18"/>
+      <c r="D163" s="18"/>
+      <c r="E163" s="20"/>
+      <c r="F163" s="18"/>
+      <c r="H163" s="18"/>
+      <c r="I163" s="18"/>
+    </row>
+    <row r="164" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A164" s="18"/>
+      <c r="D164" s="18"/>
+      <c r="E164" s="20"/>
+      <c r="F164" s="18"/>
+      <c r="H164" s="18"/>
+      <c r="I164" s="18"/>
+    </row>
+    <row r="165" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A165" s="18"/>
+      <c r="D165" s="18"/>
+      <c r="E165" s="20"/>
+      <c r="F165" s="18"/>
+      <c r="H165" s="18"/>
+      <c r="I165" s="18"/>
+    </row>
+    <row r="166" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A166" s="18"/>
+      <c r="D166" s="18"/>
+      <c r="E166" s="20"/>
+      <c r="F166" s="18"/>
+      <c r="H166" s="18"/>
+      <c r="I166" s="18"/>
+    </row>
+    <row r="167" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A167" s="18"/>
+      <c r="D167" s="18"/>
+      <c r="E167" s="20"/>
+      <c r="F167" s="18"/>
+      <c r="H167" s="18"/>
+      <c r="I167" s="18"/>
+    </row>
+    <row r="168" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A168" s="18"/>
+      <c r="D168" s="18"/>
+      <c r="E168" s="20"/>
+      <c r="F168" s="18"/>
+      <c r="H168" s="18"/>
+      <c r="I168" s="18"/>
+    </row>
+    <row r="169" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A169" s="18"/>
+      <c r="D169" s="18"/>
+      <c r="E169" s="20"/>
+      <c r="F169" s="18"/>
+      <c r="H169" s="18"/>
+      <c r="I169" s="18"/>
+    </row>
+    <row r="170" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A170" s="18"/>
+      <c r="D170" s="18"/>
+      <c r="E170" s="20"/>
+      <c r="F170" s="18"/>
+      <c r="H170" s="18"/>
+      <c r="I170" s="18"/>
+    </row>
+    <row r="171" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A171" s="18"/>
+      <c r="D171" s="18"/>
+      <c r="E171" s="20"/>
+      <c r="F171" s="18"/>
+      <c r="H171" s="18"/>
+      <c r="I171" s="18"/>
+    </row>
+    <row r="172" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A172" s="18"/>
+      <c r="D172" s="18"/>
+      <c r="E172" s="20"/>
+      <c r="F172" s="18"/>
+      <c r="H172" s="18"/>
+      <c r="I172" s="18"/>
+    </row>
+    <row r="173" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A173" s="18"/>
+      <c r="D173" s="18"/>
+      <c r="E173" s="20"/>
+      <c r="F173" s="18"/>
+      <c r="H173" s="18"/>
+      <c r="I173" s="18"/>
+    </row>
+    <row r="174" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A174" s="18"/>
+      <c r="D174" s="18"/>
+      <c r="E174" s="20"/>
+      <c r="F174" s="18"/>
+      <c r="H174" s="18"/>
+      <c r="I174" s="18"/>
+    </row>
+    <row r="175" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A175" s="18"/>
+      <c r="D175" s="18"/>
+      <c r="E175" s="20"/>
+      <c r="F175" s="18"/>
+      <c r="H175" s="18"/>
+      <c r="I175" s="18"/>
+    </row>
+    <row r="176" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A176" s="18"/>
+      <c r="D176" s="18"/>
+      <c r="E176" s="20"/>
+      <c r="F176" s="18"/>
+      <c r="H176" s="18"/>
+      <c r="I176" s="18"/>
+    </row>
+    <row r="177" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A177" s="18"/>
+      <c r="D177" s="18"/>
+      <c r="E177" s="20"/>
+      <c r="F177" s="18"/>
+      <c r="H177" s="18"/>
+      <c r="I177" s="18"/>
+    </row>
+    <row r="178" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A178" s="18"/>
+      <c r="D178" s="18"/>
+      <c r="E178" s="20"/>
+      <c r="F178" s="18"/>
+      <c r="H178" s="18"/>
+      <c r="I178" s="18"/>
+    </row>
+    <row r="179" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A179" s="18"/>
+      <c r="D179" s="18"/>
+      <c r="E179" s="20"/>
+      <c r="F179" s="18"/>
+      <c r="H179" s="18"/>
+      <c r="I179" s="18"/>
+    </row>
+    <row r="180" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A180" s="18"/>
+      <c r="D180" s="18"/>
+      <c r="E180" s="20"/>
+      <c r="F180" s="18"/>
+      <c r="H180" s="18"/>
+      <c r="I180" s="18"/>
+    </row>
+    <row r="181" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A181" s="18"/>
+      <c r="D181" s="18"/>
+      <c r="E181" s="20"/>
+      <c r="F181" s="18"/>
+      <c r="H181" s="18"/>
+      <c r="I181" s="18"/>
+    </row>
+    <row r="182" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A182" s="18"/>
+      <c r="D182" s="18"/>
+      <c r="E182" s="20"/>
+      <c r="F182" s="18"/>
+      <c r="H182" s="18"/>
+      <c r="I182" s="18"/>
+    </row>
+    <row r="183" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A183" s="18"/>
+      <c r="D183" s="18"/>
+      <c r="E183" s="20"/>
+      <c r="F183" s="18"/>
+      <c r="H183" s="18"/>
+      <c r="I183" s="18"/>
+    </row>
+    <row r="184" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A184" s="18"/>
+      <c r="D184" s="18"/>
+      <c r="E184" s="20"/>
+      <c r="F184" s="18"/>
+      <c r="H184" s="18"/>
+      <c r="I184" s="18"/>
+    </row>
+    <row r="185" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A185" s="18"/>
+      <c r="D185" s="18"/>
+      <c r="E185" s="20"/>
+      <c r="F185" s="18"/>
+      <c r="H185" s="18"/>
+      <c r="I185" s="18"/>
+    </row>
+    <row r="186" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A186" s="18"/>
+      <c r="D186" s="18"/>
+      <c r="E186" s="20"/>
+      <c r="F186" s="18"/>
+      <c r="H186" s="18"/>
+      <c r="I186" s="18"/>
+    </row>
+    <row r="187" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A187" s="18"/>
+      <c r="D187" s="18"/>
+      <c r="E187" s="20"/>
+      <c r="F187" s="18"/>
+      <c r="H187" s="18"/>
+      <c r="I187" s="18"/>
+    </row>
+    <row r="188" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A188" s="18"/>
+      <c r="D188" s="18"/>
+      <c r="E188" s="20"/>
+      <c r="F188" s="18"/>
+      <c r="H188" s="18"/>
+      <c r="I188" s="18"/>
+    </row>
+    <row r="189" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A189" s="18"/>
+      <c r="D189" s="18"/>
+      <c r="E189" s="20"/>
+      <c r="F189" s="18"/>
+      <c r="H189" s="18"/>
+      <c r="I189" s="18"/>
+    </row>
+    <row r="190" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A190" s="18"/>
+      <c r="D190" s="18"/>
+      <c r="E190" s="20"/>
+      <c r="F190" s="18"/>
+      <c r="H190" s="18"/>
+      <c r="I190" s="18"/>
+    </row>
+    <row r="191" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A191" s="18"/>
+      <c r="D191" s="18"/>
+      <c r="E191" s="20"/>
+      <c r="F191" s="18"/>
+      <c r="H191" s="18"/>
+      <c r="I191" s="18"/>
+    </row>
+    <row r="192" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A192" s="18"/>
+      <c r="D192" s="18"/>
+      <c r="E192" s="20"/>
+      <c r="F192" s="18"/>
+      <c r="H192" s="18"/>
+      <c r="I192" s="18"/>
+    </row>
+    <row r="193" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A193" s="18"/>
+      <c r="D193" s="18"/>
+      <c r="E193" s="20"/>
+      <c r="F193" s="18"/>
+      <c r="H193" s="18"/>
+      <c r="I193" s="18"/>
+    </row>
+    <row r="194" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A194" s="18"/>
+      <c r="D194" s="18"/>
+      <c r="E194" s="20"/>
+      <c r="F194" s="18"/>
+      <c r="H194" s="18"/>
+      <c r="I194" s="18"/>
+    </row>
+    <row r="195" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A195" s="18"/>
+      <c r="D195" s="18"/>
+      <c r="E195" s="20"/>
+      <c r="F195" s="18"/>
+      <c r="H195" s="18"/>
+      <c r="I195" s="18"/>
+    </row>
+    <row r="196" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A196" s="18"/>
+      <c r="D196" s="18"/>
+      <c r="E196" s="20"/>
+      <c r="F196" s="18"/>
+      <c r="H196" s="18"/>
+      <c r="I196" s="18"/>
+    </row>
+    <row r="197" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A197" s="18"/>
+      <c r="D197" s="18"/>
+      <c r="E197" s="20"/>
+      <c r="F197" s="18"/>
+      <c r="H197" s="18"/>
+      <c r="I197" s="18"/>
+    </row>
+    <row r="198" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A198" s="18"/>
+      <c r="D198" s="18"/>
+      <c r="E198" s="20"/>
+      <c r="F198" s="18"/>
+      <c r="H198" s="18"/>
+      <c r="I198" s="18"/>
+    </row>
+    <row r="199" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A199" s="18"/>
+      <c r="D199" s="18"/>
+      <c r="E199" s="20"/>
+      <c r="F199" s="18"/>
+      <c r="H199" s="18"/>
+      <c r="I199" s="18"/>
+    </row>
+    <row r="200" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A200" s="18"/>
+      <c r="D200" s="18"/>
+      <c r="E200" s="20"/>
+      <c r="F200" s="18"/>
+      <c r="H200" s="18"/>
+      <c r="I200" s="18"/>
+    </row>
+    <row r="201" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A201" s="18"/>
+      <c r="D201" s="18"/>
+      <c r="E201" s="20"/>
+      <c r="F201" s="18"/>
+      <c r="H201" s="18"/>
+      <c r="I201" s="18"/>
+    </row>
+    <row r="202" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A202" s="18"/>
+      <c r="D202" s="18"/>
+      <c r="E202" s="20"/>
+      <c r="F202" s="18"/>
+      <c r="H202" s="18"/>
+      <c r="I202" s="18"/>
+    </row>
+    <row r="203" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A203" s="18"/>
+      <c r="D203" s="18"/>
+      <c r="E203" s="20"/>
+      <c r="F203" s="18"/>
+      <c r="H203" s="18"/>
+      <c r="I203" s="18"/>
+    </row>
+    <row r="204" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A204" s="18"/>
+      <c r="D204" s="18"/>
+      <c r="E204" s="20"/>
+      <c r="F204" s="18"/>
+      <c r="H204" s="18"/>
+      <c r="I204" s="18"/>
+    </row>
+    <row r="205" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A205" s="18"/>
+      <c r="D205" s="18"/>
+      <c r="E205" s="20"/>
+      <c r="F205" s="18"/>
+      <c r="H205" s="18"/>
+      <c r="I205" s="18"/>
+    </row>
+    <row r="206" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A206" s="18"/>
+      <c r="D206" s="18"/>
+      <c r="E206" s="20"/>
+      <c r="F206" s="18"/>
+      <c r="H206" s="18"/>
+      <c r="I206" s="18"/>
+    </row>
+    <row r="207" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A207" s="18"/>
+      <c r="D207" s="18"/>
+      <c r="E207" s="20"/>
+      <c r="F207" s="18"/>
+      <c r="H207" s="18"/>
+      <c r="I207" s="18"/>
+    </row>
+    <row r="208" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A208" s="18"/>
+      <c r="D208" s="18"/>
+      <c r="E208" s="20"/>
+      <c r="F208" s="18"/>
+      <c r="H208" s="18"/>
+      <c r="I208" s="18"/>
+    </row>
+    <row r="209" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A209" s="18"/>
+      <c r="D209" s="18"/>
+      <c r="E209" s="20"/>
+      <c r="F209" s="18"/>
+      <c r="H209" s="18"/>
+      <c r="I209" s="18"/>
+    </row>
+    <row r="210" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A210" s="18"/>
+      <c r="D210" s="18"/>
+      <c r="E210" s="20"/>
+      <c r="F210" s="18"/>
+      <c r="H210" s="18"/>
+      <c r="I210" s="18"/>
+    </row>
+    <row r="211" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A211" s="18"/>
+      <c r="D211" s="18"/>
+      <c r="E211" s="20"/>
+      <c r="F211" s="18"/>
+      <c r="H211" s="18"/>
+      <c r="I211" s="18"/>
+    </row>
+    <row r="212" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A212" s="18"/>
+      <c r="D212" s="18"/>
+      <c r="E212" s="20"/>
+      <c r="F212" s="18"/>
+      <c r="H212" s="18"/>
+      <c r="I212" s="18"/>
+    </row>
+    <row r="213" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A213" s="18"/>
+      <c r="D213" s="18"/>
+      <c r="E213" s="20"/>
+      <c r="F213" s="18"/>
+      <c r="H213" s="18"/>
+      <c r="I213" s="18"/>
+    </row>
+    <row r="214" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A214" s="18"/>
+      <c r="D214" s="18"/>
+      <c r="E214" s="20"/>
+      <c r="F214" s="18"/>
+      <c r="H214" s="18"/>
+      <c r="I214" s="18"/>
+    </row>
+    <row r="215" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A215" s="18"/>
+      <c r="D215" s="18"/>
+      <c r="E215" s="20"/>
+      <c r="F215" s="18"/>
+      <c r="H215" s="18"/>
+      <c r="I215" s="18"/>
+    </row>
+    <row r="216" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A216" s="18"/>
+      <c r="D216" s="18"/>
+      <c r="E216" s="20"/>
+      <c r="F216" s="18"/>
+      <c r="H216" s="18"/>
+      <c r="I216" s="18"/>
+    </row>
+    <row r="217" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A217" s="18"/>
+      <c r="D217" s="18"/>
+      <c r="E217" s="20"/>
+      <c r="F217" s="18"/>
+      <c r="H217" s="18"/>
+      <c r="I217" s="18"/>
+    </row>
+    <row r="218" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A218" s="18"/>
+      <c r="D218" s="18"/>
+      <c r="E218" s="20"/>
+      <c r="F218" s="18"/>
+      <c r="H218" s="18"/>
+      <c r="I218" s="18"/>
+    </row>
+    <row r="219" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A219" s="18"/>
+      <c r="D219" s="18"/>
+      <c r="E219" s="20"/>
+      <c r="F219" s="18"/>
+      <c r="H219" s="18"/>
+      <c r="I219" s="18"/>
+    </row>
+    <row r="220" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A220" s="18"/>
+      <c r="D220" s="18"/>
+      <c r="E220" s="20"/>
+      <c r="F220" s="18"/>
+      <c r="H220" s="18"/>
+      <c r="I220" s="18"/>
+    </row>
+    <row r="221" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A221" s="18"/>
+      <c r="D221" s="18"/>
+      <c r="E221" s="20"/>
+      <c r="F221" s="18"/>
+      <c r="H221" s="18"/>
+      <c r="I221" s="18"/>
+    </row>
+    <row r="222" spans="1:9" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A222" s="18"/>
+      <c r="D222" s="18"/>
+      <c r="E222" s="20"/>
+      <c r="F222" s="18"/>
+      <c r="H222" s="18"/>
+      <c r="I222" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
